--- a/ControlTask2_MQA_Ivan_Savenko/FAC.xlsx
+++ b/ControlTask2_MQA_Ivan_Savenko/FAC.xlsx
@@ -259,10 +259,10 @@
     <t>Появляется всплывающее окно "Изменить настройки".</t>
   </si>
   <si>
-    <t>Все функции сайта доступны только для авторизованных пользователей.</t>
-  </si>
-  <si>
     <t>1. Нажать на кнопку "Колокольчик" в шапке сайта.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Все функции сайта доступны только для авторизованных пользователей. </t>
   </si>
 </sst>
 </file>
@@ -982,6 +982,72 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
     <mruColors>
       <color rgb="FFFFFFFF"/>
     </mruColors>
@@ -1241,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D4" s="49" t="s">
         <v>6</v>
@@ -1399,7 +1465,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>54</v>
